--- a/medicine/Sexualité et sexologie/Prix_Sade/Prix_Sade.xlsx
+++ b/medicine/Sexualité et sexologie/Prix_Sade/Prix_Sade.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le prix Sade, consacré à la littérature érotique, est un prix littéraire français créé en 2001 en hommage au marquis de Sade.
@@ -512,16 +524,88 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le prix a été créé par Lionel Aracil (président d’honneur) et Jean-Baptiste Blanc, avec la participation de Frédéric Beigbeder[1]. Il est décerné par un jury qui se présente comme une « réunion d’auteurs, d’éditeurs et autres artistes pour la célébration du libertarisme contemporain »[2],[3], le prix Sade est remis chaque année à la fin du mois de septembre afin de récompenser « un auteur singulier et honnête homme, selon la définition de son siècle. Un authentique libéral qui sera parvenu, par delà les vicissitudes de la Révolution et l'emprise de l'ordre moral, à défaire les carcans de la littérature comme ceux de la politique[4]. » Emmanuel Pierrat, entré au jury en 2002, en devient le président un an plus tard[5],[6]. 
-Le lauréat reçoit une création d'un artiste contemporain[1], comme Éric Madeleine, Nobuyoshi Araki, Alberto Sorbelli, Fabrice Hybert, ou encore Jean-Paul Gaultier, qui a signé un martinet.
-Quelques dates
-Le premier ouvrage récompensé, en 2001, est La Vie sexuelle de Catherine M., une autobiographie de Catherine Millet. L'auteure y décrit ses expériences sexuelles. Pour Marie Tréhard de Marianne les jurés ont ainsi retenu un ton libre et la « la désacralisation de la sexualité féminine ».
-En 2004, l'essai du philosophe Ruwen Ogien, Penser la pornographie, est mis en avant. L'ouvrage évoque notamment l'« image de la femme ou l'incitation à la violence » tout en analysant les objections à la pornographie. Ainsi pour Marie Tréhard le prix Sade prétend « combattre le moralisme étouffant : parce que c'est le conformisme qui est obscène[2]. »
-En 2016, les délibérations du jury sont enregistrées pour être diffusées par France Culture dans La série documentaire (LSD), Sade : le prix du fouet. Les membres du jury sont alors Emmanuel Pierrat, Catherine Robbe-Grillet, Jean-Luc Hennig, Laurence Viallet, Gisèle Vienne, François Angelier, Guy Scarpetta, Catherine Corringer, Ruwen Ogien, Jean Streff et le fouet de Maîtresse Cindy. Le prix est attribué à Agnès Giard pour son livre Désir d’humain, les Love doll au Japon[7].
-Jury
-Sous l’égide de son président, Emmanuel Pierrat, assisté de Jean Streff, secrétaire général, les membres du jury, participants ou ayant participé, sont :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le prix a été créé par Lionel Aracil (président d’honneur) et Jean-Baptiste Blanc, avec la participation de Frédéric Beigbeder. Il est décerné par un jury qui se présente comme une « réunion d’auteurs, d’éditeurs et autres artistes pour la célébration du libertarisme contemporain » le prix Sade est remis chaque année à la fin du mois de septembre afin de récompenser « un auteur singulier et honnête homme, selon la définition de son siècle. Un authentique libéral qui sera parvenu, par delà les vicissitudes de la Révolution et l'emprise de l'ordre moral, à défaire les carcans de la littérature comme ceux de la politique. » Emmanuel Pierrat, entré au jury en 2002, en devient le président un an plus tard,. 
+Le lauréat reçoit une création d'un artiste contemporain, comme Éric Madeleine, Nobuyoshi Araki, Alberto Sorbelli, Fabrice Hybert, ou encore Jean-Paul Gaultier, qui a signé un martinet.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Prix_Sade</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_Sade</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Quelques dates</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le premier ouvrage récompensé, en 2001, est La Vie sexuelle de Catherine M., une autobiographie de Catherine Millet. L'auteure y décrit ses expériences sexuelles. Pour Marie Tréhard de Marianne les jurés ont ainsi retenu un ton libre et la « la désacralisation de la sexualité féminine ».
+En 2004, l'essai du philosophe Ruwen Ogien, Penser la pornographie, est mis en avant. L'ouvrage évoque notamment l'« image de la femme ou l'incitation à la violence » tout en analysant les objections à la pornographie. Ainsi pour Marie Tréhard le prix Sade prétend « combattre le moralisme étouffant : parce que c'est le conformisme qui est obscène. »
+En 2016, les délibérations du jury sont enregistrées pour être diffusées par France Culture dans La série documentaire (LSD), Sade : le prix du fouet. Les membres du jury sont alors Emmanuel Pierrat, Catherine Robbe-Grillet, Jean-Luc Hennig, Laurence Viallet, Gisèle Vienne, François Angelier, Guy Scarpetta, Catherine Corringer, Ruwen Ogien, Jean Streff et le fouet de Maîtresse Cindy. Le prix est attribué à Agnès Giard pour son livre Désir d’humain, les Love doll au Japon.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Prix_Sade</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_Sade</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Jury</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous l’égide de son président, Emmanuel Pierrat, assisté de Jean Streff, secrétaire général, les membres du jury, participants ou ayant participé, sont :
 Lionel Aracil
 Frédéric Beigbeder
 Pierre Bourgeade (†)
@@ -543,38 +627,43 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Prix_Sade</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Prix_Sade</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Prix_Sade</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_Sade</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Lauréats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Prix Sade
-2001 : Catherine Millet pour La Vie sexuelle de Catherine M.[2]
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Prix Sade</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2001 : Catherine Millet pour La Vie sexuelle de Catherine M.
 2002 : Alain Robbe-Grillet pour C'est Gradiva qui vous appelle
 2003 : Louis Skorecki pour Il entrerait dans la légende, éditions Léo Scheer
 2005 : Jean Streff pour Traité du fétichisme à l'usage des jeunes générations, éditions Denoël
-2006 : Shozo Numa pour Yapou, bétail humain, éditions Désordres-Laurence Viallet[8]
+2006 : Shozo Numa pour Yapou, bétail humain, éditions Désordres-Laurence Viallet
 2007 : Dennis Cooper pour Salopes, éditions P.O.L
 2008 : Charles Robinson pour Génie du proxénétisme, éditions Le Seuil
 2009 : Stéphane Velut pour Cadence, éditions Christian Bourgois
@@ -583,81 +672,393 @@
 2012 : Christine Angot pour Une semaine de vacances, éditions Flammarion — refusé par l'autrice
 2013 : Jean-Baptiste Del Amo pour Pornographia, éditions Gallimard
 2014 : Alain Guiraudie pour Ici commence la nuit, éditions P.O.L
-2015 : Jean-Noël Orengo pour La Fleur du Capital, éditions Grasset, ex æquo avec Audrée Wilhelmy pour Les Sangs, édition Grasset[9]
-2016 : Agnès Giard pour Un désir d'humain, les Love Doll au Japon, éditions Les Belles Lettres[7]
+2015 : Jean-Noël Orengo pour La Fleur du Capital, éditions Grasset, ex æquo avec Audrée Wilhelmy pour Les Sangs, édition Grasset
+2016 : Agnès Giard pour Un désir d'humain, les Love Doll au Japon, éditions Les Belles Lettres
 2017 : Gay Talese pour Le Motel du voyeur : une enquête, éditions du Sous-Sol
 2018 : Jonathan Littell pour Une vieille histoire, éditions Gallimard
 2019 : Christophe Siébert pour Métaphysique de la viande, éditions Au diable vauvert, ex æquo avec Kevin Lambert pour Querelle, Le Nouvel Attila
-2020 : Marie-Pier Lafontaine[10] pour Chienne, éditions Le Nouvel Attila
+2020 : Marie-Pier Lafontaine pour Chienne, éditions Le Nouvel Attila
 2021 : Caroline De Mulder pour Manger Bambi, éditions Gallimard ex-aequo avec Léo Barthe (Jacques Abeille) pour Princesse Johanna (La Musardine)
-2022 : Charlotte Bourlard pour L’Apparence du vivant (Inculte)[11]
-2023 : Grégory Le Floch pour Gloria, Gloria, éditions Christian Bourgeois[12]
-Prix Sade spéciaux
-2021 : Grand Prix Sade aux Œuvres complètes, Tome 1 et Tome 2 d’Esparbec (La Musardine)
+2022 : Charlotte Bourlard pour L’Apparence du vivant (Inculte)
+2023 : Grégory Le Floch pour Gloria, Gloria, éditions Christian Bourgeois</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Prix_Sade</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_Sade</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Lauréats</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Prix Sade spéciaux</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2021 : Grand Prix Sade aux Œuvres complètes, Tome 1 et Tome 2 d’Esparbec (La Musardine)
 2022 : Prix Sade hommage à Jacques Abeille/Léo Barthe pour Constance ou la pure révolte (L’âne qui butine)
-2022 : Prix Sade spécial à Christophe Bier pour le récit autobiographique L’Obsession du Matto-Grosso (éditions du Sandre)[11] et, sous le pseudonyme de Don Brennus Aléra fils, les romans Femellisé et La Chienne fatale (éditions Select-Bibliothèque)
-Prix Sade du premier roman
-2001 : Éric Bénier-Bürckel pour Un prof bien sous tout rapport, éditions Pétrelle
-2017 : Raphaël Eymery pour Pornarina : la-prostituée-à-tête-de-cheval, éditions Denoël
-Prix Sade de l'essai
-2004 : Ruwen Ogien pour Penser la pornographie, éditions PUF[2]
+2022 : Prix Sade spécial à Christophe Bier pour le récit autobiographique L’Obsession du Matto-Grosso (éditions du Sandre) et, sous le pseudonyme de Don Brennus Aléra fils, les romans Femellisé et La Chienne fatale (éditions Select-Bibliothèque)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Prix_Sade</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_Sade</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Lauréats</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Prix Sade du premier roman</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2001 : Éric Bénier-Bürckel pour Un prof bien sous tout rapport, éditions Pétrelle
+2017 : Raphaël Eymery pour Pornarina : la-prostituée-à-tête-de-cheval, éditions Denoël</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Prix_Sade</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_Sade</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Lauréats</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Prix Sade de l'essai</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2004 : Ruwen Ogien pour Penser la pornographie, éditions PUF
 2011 : Paul B. Preciado pour Pornotopie, Playboy et l'invention de la sexualité multimédia, éditions Climats
-2020 : Marc Renneville pour Vacher l'éventreur. Archives d'un tueur en série[13], éditions J. Millon
-2022 : Isabelle Poutrin et Elisabeth Lusset pour le Dictionnaire du fouet et de la fessée (PUF)[14].
-Prix Sade du livre d'art
-2006 : Jacques Henric et Jorge Amat pour Obsessions nocturnes, éditions Édite
+2020 : Marc Renneville pour Vacher l'éventreur. Archives d'un tueur en série, éditions J. Millon
+2022 : Isabelle Poutrin et Elisabeth Lusset pour le Dictionnaire du fouet et de la fessée (PUF).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Prix_Sade</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_Sade</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Lauréats</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Prix Sade du livre d'art</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2006 : Jacques Henric et Jorge Amat pour Obsessions nocturnes, éditions Édite
 2018 : Mavado Charon pour Dirty, Mania Press
 2019 : Jean-Jacques Lequeu, bâtisseur de fantasmes, éditions Norma/Bibliothèque nationale de France (catalogue d'exposition)
-2020 : Marc Martin pour Les Tasses - Toilettes publiques, affaires privées[15],[13], éditions AGUA, ex æquo avec Nathalie Latour pour Céroplastie, corps immortalisés[13] , éditions Le Murmure
-2022 : Midi-Minuit Fantastique (Rouge profond) sous la direction de Nicolas Stanzick[11].
-Prix Sade du jury
-2009 : Pierre Bourgeade pour Éloge des fétichistes, éditions Tristram
-Prix Sade document
-2012 : Jean-Pierre Bourgeron pour l'édition de trois textes de la collection « Eros singuliers » (éditions HumuS) : L'Aviateur fétichiste (2012), Marthe de Sainte-Anne (2011) et Le Curé travesti (2011)
-2015 : Trois milliards de pervers : grande encyclopédie des homosexualités, réédition[16] de l’édition saisie en 1973 (éditions Acratie)
-Prix Sade BD/Manga
-2022 : Gengoroh Tagame pour House of brutes (Dynamite)[11].
-Prix Sade DVD
-2022 : La Chair et le sang (Carlotta) de Paul Verhoeven</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Prix_Sade</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Prix_Sade</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+2020 : Marc Martin pour Les Tasses - Toilettes publiques, affaires privées éditions AGUA, ex æquo avec Nathalie Latour pour Céroplastie, corps immortalisés , éditions Le Murmure
+2022 : Midi-Minuit Fantastique (Rouge profond) sous la direction de Nicolas Stanzick.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Prix_Sade</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_Sade</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Lauréats</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Prix Sade du jury</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2009 : Pierre Bourgeade pour Éloge des fétichistes, éditions Tristram</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Prix_Sade</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_Sade</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Lauréats</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Prix Sade document</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2012 : Jean-Pierre Bourgeron pour l'édition de trois textes de la collection « Eros singuliers » (éditions HumuS) : L'Aviateur fétichiste (2012), Marthe de Sainte-Anne (2011) et Le Curé travesti (2011)
+2015 : Trois milliards de pervers : grande encyclopédie des homosexualités, réédition de l’édition saisie en 1973 (éditions Acratie)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Prix_Sade</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_Sade</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Lauréats</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Prix Sade BD/Manga</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2022 : Gengoroh Tagame pour House of brutes (Dynamite).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Prix_Sade</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_Sade</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Lauréats</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Prix Sade DVD</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2022 : La Chair et le sang (Carlotta) de Paul Verhoeven</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Prix_Sade</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_Sade</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Controverses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avec Annie Le Brun
-Annie Le Brun, auteur de plusieurs essais de référence sur Sade, dont son livre-préface (Soudain un bloc d'abîme, Sade, 1986) aux œuvres complètes du marquis éditées par Jean-Jacques Pauvert, a vivement critiqué ce prix, publiant dans son essai Ailleurs et autrement (2011) une lettre qu'elle avait adressée le 24 mars 2001 à son président, Lionel Aracil, qui avait fait figurer son nom, à son insu, dans le jury. Dénonçant ce qu'elle estime être une mascarade médiatique et culturelle, elle y écrit notamment :
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Avec Annie Le Brun</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Annie Le Brun, auteur de plusieurs essais de référence sur Sade, dont son livre-préface (Soudain un bloc d'abîme, Sade, 1986) aux œuvres complètes du marquis éditées par Jean-Jacques Pauvert, a vivement critiqué ce prix, publiant dans son essai Ailleurs et autrement (2011) une lettre qu'elle avait adressée le 24 mars 2001 à son président, Lionel Aracil, qui avait fait figurer son nom, à son insu, dans le jury. Dénonçant ce qu'elle estime être une mascarade médiatique et culturelle, elle y écrit notamment :
 « Petite misère culturelle, vous êtes bien mal renseigné : méprisant depuis toujours autant ceux qui reçoivent les prix que ceux qui les donnent, comment pourrais-je consentir à participer à la mômerie d'un prix marquis de Sade ? “Bas les pattes devant Sade”, avais-je écrit avec mes amis surréalistes devant les manigances d'un théâtreux en mal de scandale, à la fin des années soixante. Que pourrais-je dire d'autre avec Jean-Jacques Pauvert, qui s'associe à moi en l'occurrence, au ramassis d'écrivains et artistes que vous sollicitez, les Sollers, Bourgeade, Pingeot, Bramly…, pour peu qu'ils acceptent de patronner cette mascarade bien dans le goût de l'époque ? Sans doute les uns et les autres ne se sont-ils pas assez discrédités pour ne pas rater une occasion d'en rajouter. »
-Et critiquant le trophée, un fouet « dessiné par le bagagiste de luxe Louis Vuitton », qui lui rappelle « le balai immonde » du roi Ubu, elle conclut : « Que voulez-vous, tout le design du monde ne réussira jamais à maquiller tant d'indignité[17]. » Critique qui, au-delà de ce seul prix, s'inscrit contre cette tendance au recyclage, « merchandising » de certaines icônes culturelles[18].
+Et critiquant le trophée, un fouet « dessiné par le bagagiste de luxe Louis Vuitton », qui lui rappelle « le balai immonde » du roi Ubu, elle conclut : « Que voulez-vous, tout le design du monde ne réussira jamais à maquiller tant d'indignité. » Critique qui, au-delà de ce seul prix, s'inscrit contre cette tendance au recyclage, « merchandising » de certaines icônes culturelles.
 Dans les pages « Débats et opinions » du Figaro du 8 août 2001, Lionel Aracil répond à ces critiques, dans une tribune intitulée « Sade et ses nouveaux geôliers » : 
-« Notre divin marquis aurait apprécié les cris d'orfraie de ceux qui se présentent en véritables gardiens du temple de Silling. N'est-il pas navrant qu'un prix littéraire dédié à l'héritage de l'écrivain et philosophe, emprisonné pour sa liberté d'expression, soit dénoncé et vilipendé par des embastilleurs de l'édition… un quarteron de littéreux à la retraite, dont Pauvert et Lebrun (sic) se dressent contre les impertinents et subversifs qui ont osé toucher au mausolée ?Si le Prix Sade a été créé, [c'est] pour révéler ou défendre un auteur qui défie l'ordre moral ou politique par-delà toute forme de terrorisme intellectuel […][19]. »
-Christine Angot
-En 2012, le prix est attribué à Christine Angot pour son ouvrage Une semaine de vacances, traitant de l'inceste[20]. Angot refuse ce prix. Selon son éditeur Flammarion, l'obtention de celui-ci pouvait l'empêcher de recevoir d’autres prix plus prestigieux[21],[4].
+« Notre divin marquis aurait apprécié les cris d'orfraie de ceux qui se présentent en véritables gardiens du temple de Silling. N'est-il pas navrant qu'un prix littéraire dédié à l'héritage de l'écrivain et philosophe, emprisonné pour sa liberté d'expression, soit dénoncé et vilipendé par des embastilleurs de l'édition… un quarteron de littéreux à la retraite, dont Pauvert et Lebrun (sic) se dressent contre les impertinents et subversifs qui ont osé toucher au mausolée ?Si le Prix Sade a été créé, [c'est] pour révéler ou défendre un auteur qui défie l'ordre moral ou politique par-delà toute forme de terrorisme intellectuel […]. »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Prix_Sade</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_Sade</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Controverses</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Christine Angot</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2012, le prix est attribué à Christine Angot pour son ouvrage Une semaine de vacances, traitant de l'inceste. Angot refuse ce prix. Selon son éditeur Flammarion, l'obtention de celui-ci pouvait l'empêcher de recevoir d’autres prix plus prestigieux,.
 Dans une lettre à Emmanuel Pierrat, elle s'en explique ainsi : 
-« L’image de ce prix, qu’elle corresponde ou non à l’œuvre du Marquis de Sade, est en contradiction totale avec le livre que j’ai écrit, et ne pas refuser ce prix serait souscrire à un contresens objectif quant à ce que dit ce livre, contresens que je récuse[22]. »
+« L’image de ce prix, qu’elle corresponde ou non à l’œuvre du Marquis de Sade, est en contradiction totale avec le livre que j’ai écrit, et ne pas refuser ce prix serait souscrire à un contresens objectif quant à ce que dit ce livre, contresens que je récuse. »
 </t>
         </is>
       </c>
